--- a/Dataset/Kaggle/results/ml5/no_best.xlsx
+++ b/Dataset/Kaggle/results/ml5/no_best.xlsx
@@ -488,19 +488,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5428335148858058</v>
+        <v>0.6509570351772502</v>
       </c>
       <c r="E2" t="n">
         <v>423.6456914425545</v>
       </c>
       <c r="F2" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G2" t="n">
-        <v>2.222887700771683</v>
+        <v>2.275877701384947</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9464232068449225</v>
+        <v>0.9385119825408209</v>
       </c>
     </row>
     <row r="3">
@@ -516,19 +516,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5753006587525961</v>
+        <v>0.6811771655768494</v>
       </c>
       <c r="E3" t="n">
         <v>432.2051494283493</v>
       </c>
       <c r="F3" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G3" t="n">
-        <v>2.222855858244463</v>
+        <v>2.274778592481902</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9463459730051905</v>
+        <v>0.932977249784652</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5773926037976529</v>
+        <v>0.7622187650611084</v>
       </c>
       <c r="E4" t="n">
         <v>537.9698369805553</v>
       </c>
       <c r="F4" t="n">
-        <v>15.59733038512018</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G4" t="n">
-        <v>2.223188536140543</v>
+        <v>2.311971467126946</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9135661098260074</v>
+        <v>0.9075820182880155</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5753006587525961</v>
+        <v>0.8077035390956416</v>
       </c>
       <c r="E5" t="n">
         <v>483.1075600637536</v>
       </c>
       <c r="F5" t="n">
-        <v>10.95200491102514</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G5" t="n">
-        <v>2.310434011118717</v>
+        <v>2.312209088158856</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9093741054719803</v>
+        <v>0.908794341032511</v>
       </c>
     </row>
     <row r="6">
@@ -600,19 +600,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8238091596570924</v>
+        <v>0.8570962420314223</v>
       </c>
       <c r="E6" t="n">
-        <v>614.7376195061562</v>
+        <v>614.3613833194573</v>
       </c>
       <c r="F6" t="n">
-        <v>12.16485231192758</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G6" t="n">
-        <v>2.280562582991671</v>
+        <v>2.31111718700996</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9223048661748533</v>
+        <v>0.9027768196033616</v>
       </c>
     </row>
   </sheetData>
